--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92767</v>
+        <v>43016</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Pedro da Rocha</t>
+          <t>Kaique Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>6936.32</v>
+        <v>7107.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95533</v>
+        <v>74576</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro da Paz</t>
+          <t>Antônio Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,89 +519,89 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>3614.21</v>
+        <v>5769.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77754</v>
+        <v>72803</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thales Moura</t>
+          <t>Samuel Peixoto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>10380.72</v>
+        <v>3502.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3413</v>
+        <v>11383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Azevedo</t>
+          <t>Rafaela Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>5980.33</v>
+        <v>7929.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87295</v>
+        <v>85194</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietro Farias</t>
+          <t>Sr. Luiz Fernando Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>3782.71</v>
+        <v>5805.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33010</v>
+        <v>22846</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Lucca Pereira</t>
+          <t>Kamilly Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>11645.9</v>
+        <v>9240.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3641</v>
+        <v>27629</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Lucca Barbosa</t>
+          <t>Noah Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10163.18</v>
+        <v>9026.790000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55366</v>
+        <v>11707</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Gabriel Mendes</t>
+          <t>João da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>4533.94</v>
+        <v>2661.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96703</v>
+        <v>78574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Vinicius Barros</t>
+          <t>Mirella Farias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>3980.59</v>
+        <v>9604.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94333</v>
+        <v>91952</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Duarte</t>
+          <t>Felipe Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>11989.52</v>
+        <v>10775.78</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43016</v>
+        <v>53472</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kaique Duarte</t>
+          <t>Stephany Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>7107.93</v>
+        <v>4308.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74576</v>
+        <v>1160</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antônio Rocha</t>
+          <t>Dr. Alexandre Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>5769.33</v>
+        <v>7400.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72803</v>
+        <v>77297</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel Peixoto</t>
+          <t>Cauã da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>3502.69</v>
+        <v>6347.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11383</v>
+        <v>12816</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rafaela Ferreira</t>
+          <t>Isabel Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>7929.87</v>
+        <v>3639.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85194</v>
+        <v>68949</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Luiz Fernando Pereira</t>
+          <t>João Lucas Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>5805.26</v>
+        <v>2652.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22846</v>
+        <v>32137</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kamilly Cavalcanti</t>
+          <t>Marcelo Oliveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>9240.41</v>
+        <v>6484.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>27629</v>
+        <v>9786</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noah Costela</t>
+          <t>Maria Clara Campos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>9026.790000000001</v>
+        <v>3950.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11707</v>
+        <v>4424</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João da Cunha</t>
+          <t>Isaac Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>2661.67</v>
+        <v>9361.799999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78574</v>
+        <v>13059</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mirella Farias</t>
+          <t>Brenda Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>9604.6</v>
+        <v>6266.46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91952</v>
+        <v>83115</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Felipe Farias</t>
+          <t>Vitória Campos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>10775.78</v>
+        <v>5115.28</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>53472</v>
+        <v>33267</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stephany Castro</t>
+          <t>Yasmin Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>4308.64</v>
+        <v>6239.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1160</v>
+        <v>21941</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Alexandre Carvalho</t>
+          <t>Dr. André Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>7400.67</v>
+        <v>5228.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77297</v>
+        <v>67223</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cauã da Mata</t>
+          <t>Sra. Stephany Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>6347.54</v>
+        <v>12371.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12816</v>
+        <v>86884</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabel Freitas</t>
+          <t>Stephany da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>3639.61</v>
+        <v>8034.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68949</v>
+        <v>67330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Lucas Dias</t>
+          <t>Dr. Matheus Teixeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,89 +606,89 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>2652.3</v>
+        <v>3210.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32137</v>
+        <v>16276</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcelo Oliveira</t>
+          <t>Francisco Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>6484.91</v>
+        <v>3366.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9786</v>
+        <v>42797</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Clara Campos</t>
+          <t>Sr. Luiz Gustavo Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>3950.11</v>
+        <v>8315.440000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4424</v>
+        <v>79341</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Ferreira</t>
+          <t>Sr. Eduardo Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9361.799999999999</v>
+        <v>6605.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13059</v>
+        <v>14167</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Nunes</t>
+          <t>Davi Lucca Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>6266.46</v>
+        <v>8938.639999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83115</v>
+        <v>30362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Campos</t>
+          <t>Sophie da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>5115.28</v>
+        <v>5496.47</v>
       </c>
     </row>
   </sheetData>
